--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s1_mean_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1403.559571622234</v>
+        <v>258.4975775878919</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4269998073577881</v>
+        <v>0.1749999523162842</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.80957162069346</v>
+        <v>54.4975775878919</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1257.080000001541</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103.67</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.29065144902802</v>
+        <v>10.98279108423719</v>
       </c>
     </row>
     <row r="6">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.48909622152294</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>128.4420000000173</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>43.19900000000052</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>120.4220000000278</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>77.52000000000773</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>176.8440000000429</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>120.4220000000533</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>176.8440000000551</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>128.442000000047</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20.42200000005289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>76.84400000005483</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>28.44200000004633</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.743</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4">
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.624000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1280,7 +1280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1318,23 +1318,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
